--- a/ecraPressCStartScreen.xlsx
+++ b/ecraPressCStartScreen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berna\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berna\Documents\Tecnico\Projecto_IAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="AG29" sqref="Z29:AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1415,10 +1415,10 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -1453,19 +1453,17 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="1"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="5"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="3"/>
     </row>
     <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>60</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5"/>
@@ -1491,10 +1489,10 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
+      <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
@@ -1529,11 +1527,11 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
+      <c r="AE27" s="5"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="3"/>
@@ -1567,11 +1565,11 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="1"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="5"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="3"/>
@@ -1605,10 +1603,10 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
